--- a/cp-add-ip-statements/ig/StructureDefinition-ror-healthcareservice-sensitive-unit.xlsx
+++ b/cp-add-ip-statements/ig/StructureDefinition-ror-healthcareservice-sensitive-unit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T12:46:51+00:00</t>
+    <t>2025-07-17T13:13:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
